--- a/featuresCyber.xlsx
+++ b/featuresCyber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasgreco/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db63966ec21857c1/Desktop/CS/Git ^0 Foto/Zeek-Pcap-Features-Extractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECA25605-ABFA-0346-A85D-43962C2EA2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{ECA25605-ABFA-0346-A85D-43962C2EA2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F79AD0-8069-4483-8AD5-0C70210E0821}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{4F621CC0-D089-4C43-B8F0-40B9E0464964}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F621CC0-D089-4C43-B8F0-40B9E0464964}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -266,21 +266,12 @@
     <t>Mean of the flow packet size transmitted by the dst</t>
   </si>
   <si>
-    <t>the depth into the connection of http request/response transaction</t>
-  </si>
-  <si>
     <t>Source jitter (mSec)</t>
   </si>
   <si>
     <t>Destination jitter (mSec)</t>
   </si>
   <si>
-    <t>record start time</t>
-  </si>
-  <si>
-    <t>record last time</t>
-  </si>
-  <si>
     <t>Source inter-packet arrival time (mSec)</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>No of flows that has a command in ftp session</t>
   </si>
   <si>
-    <t>No of connections of the same source address (1) and the destination port (4) in 100 connections according to the last time (26)</t>
-  </si>
-  <si>
     <t>No. of connections of the same source address (1) in 100 connections according to the last time (26)</t>
   </si>
   <si>
@@ -356,12 +344,6 @@
     <t>No. of connections that contain the same service (14) and source address (1) in 100 connections according to the last time (26)</t>
   </si>
   <si>
-    <t>No of connections of the same destination address (3) and the source port (2) in 100  connections according to the last time (26)</t>
-  </si>
-  <si>
-    <t>No of connections of the same source (1) and the destination (3) address in in 100 connections according to the last time (26)</t>
-  </si>
-  <si>
     <t>attack_cat</t>
   </si>
   <si>
@@ -428,12 +410,6 @@
     <t>pwd_ftp</t>
   </si>
   <si>
-    <t>user ftp if request</t>
-  </si>
-  <si>
-    <t>password ftp if captured</t>
-  </si>
-  <si>
     <t>pkts_dropped</t>
   </si>
   <si>
@@ -507,13 +483,37 @@
   </si>
   <si>
     <t>fullLog/flowFeatures</t>
+  </si>
+  <si>
+    <t>The depth into the connection of http request/response transaction</t>
+  </si>
+  <si>
+    <t>Record start time</t>
+  </si>
+  <si>
+    <t>Record last time</t>
+  </si>
+  <si>
+    <t>No. of connections of the same source address (1) and the destination port (4) in 100 connections according to the last time (26)</t>
+  </si>
+  <si>
+    <t>No. of connections of the same destination address (3) and the source port (2) in 100  connections according to the last time (26)</t>
+  </si>
+  <si>
+    <t>No. of connections of the same source (1) and the destination (3) address in in 100 connections according to the last time (26)</t>
+  </si>
+  <si>
+    <t>User ftp if request</t>
+  </si>
+  <si>
+    <t>Password ftp if captured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -984,21 +984,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E937A14-5697-2D48-A77E-3ED668FF0CE5}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="141.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="141.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" customWidth="1"/>
     <col min="6" max="6" width="18" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.69921875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1009,16 +1009,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1035,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1055,10 +1055,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1075,10 +1075,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1095,11 +1095,11 @@
         <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1116,10 +1116,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1136,10 +1136,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1156,10 +1156,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1176,13 +1176,13 @@
         <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1199,13 +1199,13 @@
         <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1219,13 +1219,13 @@
         <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1239,13 +1239,13 @@
         <v>42</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1259,13 +1259,13 @@
         <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1279,13 +1279,13 @@
         <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1302,10 +1302,10 @@
         <v>40</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1322,10 +1322,10 @@
         <v>43</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1342,10 +1342,10 @@
         <v>45</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1362,10 +1362,10 @@
         <v>49</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1382,15 +1382,15 @@
         <v>52</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
         <v>70</v>
@@ -1399,13 +1399,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1419,13 +1419,13 @@
         <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1442,10 +1442,10 @@
         <v>55</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1462,10 +1462,10 @@
         <v>56</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1479,16 +1479,16 @@
         <v>42</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1502,16 +1502,16 @@
         <v>42</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>42</v>
@@ -1528,10 +1528,10 @@
         <v>59</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>42</v>
@@ -1548,10 +1548,10 @@
         <v>60</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>42</v>
@@ -1568,10 +1568,10 @@
         <v>61</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>5</v>
@@ -1588,10 +1588,10 @@
         <v>62</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1599,20 +1599,20 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1620,20 +1620,20 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>42</v>
@@ -1650,10 +1650,10 @@
         <v>65</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>42</v>
@@ -1670,10 +1670,10 @@
         <v>66</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>42</v>
@@ -1690,10 +1690,10 @@
         <v>67</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>42</v>
@@ -1710,10 +1710,10 @@
         <v>68</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.45" customHeight="1">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>5</v>
@@ -1730,10 +1730,10 @@
         <v>69</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>42</v>
@@ -1750,474 +1750,474 @@
         <v>53</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.45" customHeight="1">
       <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.45" customHeight="1">
       <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.45" customHeight="1">
       <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.45" customHeight="1">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.45" customHeight="1">
       <c r="A42" s="11">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.45" customHeight="1">
       <c r="A43" s="11">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.45" customHeight="1">
       <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.45" customHeight="1">
       <c r="A45" s="11">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.45" customHeight="1">
       <c r="A46" s="11">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.45" customHeight="1">
       <c r="A47" s="11">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.45" customHeight="1">
       <c r="A48" s="11">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
         <v>138</v>
       </c>
-      <c r="C60" t="s">
-        <v>146</v>
-      </c>
       <c r="D60" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>62</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>42</v>
@@ -2234,10 +2234,10 @@
         <v>26</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>63</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>42</v>
@@ -2254,17 +2254,17 @@
         <v>30</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="D68" s="2">
         <f>COUNTA(D2:D66)</f>
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D36:D58 D60:D1048576 D1:D34">
+  <conditionalFormatting sqref="D1:D34 D36:D58 D60:D1048576">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="parziale">
       <formula>NOT(ISERROR(SEARCH("parziale",D1)))</formula>
     </cfRule>
@@ -2275,7 +2275,7 @@
       <formula>NOT(ISERROR(SEARCH("si",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D1048576 D1:D58">
+  <conditionalFormatting sqref="D1:D58 D60:D1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="si">
       <formula>NOT(ISERROR(SEARCH("si",D1)))</formula>
     </cfRule>
